--- a/ComparisonReport.xlsx
+++ b/ComparisonReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lowyi\OneDrive\Documents\TP\INAUTO\AIPayrollReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9282F7-F624-4F8D-AF00-C6696CFB01AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09F6A24-F3C5-4FEF-9DA3-5C5AA3AAB0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B0520EBD-E3B6-4BEC-B48B-5A070446011A}"/>
+    <workbookView xWindow="1392" yWindow="1692" windowWidth="17280" windowHeight="9960" activeTab="1" xr2:uid="{B0520EBD-E3B6-4BEC-B48B-5A070446011A}"/>
   </bookViews>
   <sheets>
     <sheet name="Finance" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>Average</t>
   </si>
@@ -97,6 +97,185 @@
   </si>
   <si>
     <t>2021Mar</t>
+  </si>
+  <si>
+    <t>Citizens = 16_x000D_
+Foreigners = 63_x000D_
+PR = 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHINESE = 1_x000D_
+FILIPINO = 6_x000D_
+INDIAN = 30_x000D_
+INDONESIAN = 1_x000D_
+MALAYSIAN = 7_x000D_
+MYANMAR = 33_x000D_
+SINGAPOREAN = 16_x000D_
+SRI LANKAN = 5_x000D_
+VIETNAMESE = 1_x000D_
+</t>
+  </si>
+  <si>
+    <t>Males = 86_x000D_
+Females = 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Managing Director = 1_x000D_
+Administrative Executive = 1_x000D_
+Senior Resident Enginner (Tunnel) = 1_x000D_
+Project Engineer = 22_x000D_
+Administrative Assistant = 1_x000D_
+Resident Engineer = 24_x000D_
+Resident Technical Officer (Bored Tunnel) = 1_x000D_
+Resident Technical Officer = 44_x000D_
+Accounts Assistant = 1_x000D_
+Senior Resident Engineer = 2_x000D_
+Professional Engineer = 1_x000D_
+Resident Enginner = 1_x000D_
+Accounts Executive = 1_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corporate = 5_x000D_
+Circle Line 6 C8851 = 47_x000D_
+T3011 TEL Contract T301 = 47_x000D_
+C1366 = 2_x000D_
+</t>
+  </si>
+  <si>
+    <t>Citizens = 16_x000D_
+Foreigners = 73_x000D_
+PR = 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHINESE = 1_x000D_
+FILIPINO = 7_x000D_
+INDIAN = 38_x000D_
+INDONESIAN = 1_x000D_
+MALAYSIAN = 7_x000D_
+MYANMAR = 31_x000D_
+SINGAPOREAN = 16_x000D_
+SRI LANKAN = 8_x000D_
+VIETNAMESE = 1_x000D_
+</t>
+  </si>
+  <si>
+    <t>Males = 96_x000D_
+Females = 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Managing Director = 1_x000D_
+Administrative Executive = 1_x000D_
+Senior Resident Enginner (Tunnel) = 1_x000D_
+Project Engineer = 22_x000D_
+Administrative Assistant = 1_x000D_
+Resident Technical Officer = 53_x000D_
+Resident Engineer = 25_x000D_
+Resident Technical Officer (Bored Tunnel) = 1_x000D_
+Senior Resident Enginner = 1_x000D_
+Accounts Assistant = 1_x000D_
+Senior Resident Engineer = 2_x000D_
+Professional Engineer = 1_x000D_
+Resident Enginner = 1_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corporate = 3_x000D_
+Circle Line 6 C8851 = 46_x000D_
+T2205 Thomson Line = 5_x000D_
+T3011 TEL Contract T301 = 55_x000D_
+C1366 = 2_x000D_
+</t>
+  </si>
+  <si>
+    <t>Citizens = 16_x000D_
+Foreigners = 58_x000D_
+PR = 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHINESE = 2_x000D_
+FILIPINO = 6_x000D_
+INDIAN = 33_x000D_
+INDONESIAN = 1_x000D_
+MALAYSIAN = 5_x000D_
+MYANMAR = 27_x000D_
+SINGAPOREAN = 16_x000D_
+SRI LANKAN = 9_x000D_
+VIETNAMESE = 1_x000D_
+</t>
+  </si>
+  <si>
+    <t>Males = 89_x000D_
+Females = 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Managing Director = 1_x000D_
+Administrative Executive = 1_x000D_
+Resident Technical Officer = 50_x000D_
+Senior Resident Enginner (Tunnel) = 1_x000D_
+Project Engineer = 15_x000D_
+Administrative Assistant = 1_x000D_
+Resident Engineer = 25_x000D_
+Resident Technical Officer (Bored Tunnel) = 1_x000D_
+Senior Resident Enginner = 1_x000D_
+Accounts Assistant = 1_x000D_
+Senior Resident Engineer = 2_x000D_
+Professional Engineer = 1_x000D_
+Resident Enginner = 1_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corporate = 3_x000D_
+T3011 TEL Contract T301 = 48_x000D_
+Circle Line 6 C8851 = 43_x000D_
+T2205 Thomson Line = 4_x000D_
+C1366 = 3_x000D_
+</t>
+  </si>
+  <si>
+    <t>Citizens = 14_x000D_
+Foreigners = 40_x000D_
+PR = 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHINESE = 1_x000D_
+FILIPINO = 5_x000D_
+INDIAN = 23_x000D_
+INDONESIAN = 1_x000D_
+MALAYSIAN = 4_x000D_
+MYANMAR = 21_x000D_
+SINGAPOREAN = 14_x000D_
+SRI LANKAN = 8_x000D_
+VIETNAMESE = 1_x000D_
+</t>
+  </si>
+  <si>
+    <t>Males = 68_x000D_
+Females = 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Managing Director = 1_x000D_
+Administrative Executive = 1_x000D_
+Resident Technical Officer = 34_x000D_
+Senior Resident Enginner (Tunnel) = 1_x000D_
+Project Engineer = 13_x000D_
+Administrative Assistant = 1_x000D_
+Resident Engineer = 20_x000D_
+Resident Technical Officer (Bored Tunnel) = 1_x000D_
+Senior Resident Enginner = 1_x000D_
+Resident Enginner = 2_x000D_
+Accounts Assistant = 1_x000D_
+Senior Resident Engineer = 2_x000D_
+Professional Engineer = 1_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corporate = 3_x000D_
+T3011 TEL Contract T301 = 46_x000D_
+Circle Line 6 C8851 = 25_x000D_
+T2205 Thomson Line = 4_x000D_
+C1366 = 1_x000D_
+</t>
   </si>
 </sst>
 </file>
@@ -453,7 +632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63055E6-BA4D-463E-923C-FD598CC754C1}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E11"/>
     </sheetView>
   </sheetViews>
@@ -483,50 +662,170 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>12.3417721518987</v>
+      </c>
+      <c r="C2">
+        <v>5.2475247524752398</v>
+      </c>
+      <c r="D2">
+        <v>10.3603603603603</v>
+      </c>
+      <c r="E2">
+        <v>66.089108910890999</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>8.86075949367088</v>
+      </c>
+      <c r="C3">
+        <v>4.9504950495049496</v>
+      </c>
+      <c r="D3">
+        <v>4.5045045045045002</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>0.354430379746835</v>
+      </c>
+      <c r="C4">
+        <v>0.316831683168316</v>
+      </c>
+      <c r="D4">
+        <v>0.24324324324324301</v>
+      </c>
+      <c r="E4">
+        <v>0.27722772277227697</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>3.7468354430379698</v>
+      </c>
+      <c r="C6">
+        <v>3.9306930693069302</v>
+      </c>
+      <c r="D6">
+        <v>3.9279279279279198</v>
+      </c>
+      <c r="E6">
+        <v>3.2475247524752402</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>447.13924050632897</v>
+      </c>
+      <c r="C7">
+        <v>357.15841584158397</v>
+      </c>
+      <c r="D7">
+        <v>274.612612612612</v>
+      </c>
+      <c r="E7">
+        <v>269.44554455445501</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
+      <c r="B8">
+        <v>389.03797468354401</v>
+      </c>
+      <c r="C8">
+        <v>313.63366336633601</v>
+      </c>
+      <c r="D8">
+        <v>245.18018018018</v>
+      </c>
+      <c r="E8">
+        <v>245.148514851485</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
+      <c r="B10">
+        <v>5325.0759493670803</v>
+      </c>
+      <c r="C10">
+        <v>5840.6930693069298</v>
+      </c>
+      <c r="D10">
+        <v>5860.1441441441402</v>
+      </c>
+      <c r="E10">
+        <v>5883.4158415841503</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
+      </c>
+      <c r="B11">
+        <v>4844.9873417721501</v>
+      </c>
+      <c r="C11">
+        <v>5455.5346534653399</v>
+      </c>
+      <c r="D11">
+        <v>5534.0270270270203</v>
+      </c>
+      <c r="E11">
+        <v>5460.6534653465296</v>
       </c>
     </row>
   </sheetData>
@@ -538,7 +837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3EF90C-63A1-45EC-9BCC-6E39B6BF7F70}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="B2:E6"/>
     </sheetView>
   </sheetViews>
@@ -564,50 +863,90 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
